--- a/biology/Botanique/Ingrid_Marie/Ingrid_Marie.xlsx
+++ b/biology/Botanique/Ingrid_Marie/Ingrid_Marie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingrid Marie est un cultivar de pommes apparu en 1910 au Danemark.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pomme à couteau, rouge, de calibre moyen.
 </t>
@@ -542,7 +556,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Origine : Cox's Orange Pippin × Delicious
 Descendants :
@@ -574,12 +590,14 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Groupe de floraison : D
 Date de floraison : 2 jours après la Golden Delicious.
 Fleurs fécondées par Pinova, Rajka...
-S-génotype : S5S43[1]</t>
+S-génotype : S5S43</t>
         </is>
       </c>
     </row>
@@ -607,7 +625,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un peu résistante à la tavelure et au mildiou.
 </t>
@@ -638,7 +658,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Maturité: mi-août.
 Conservation: jusque septembre.
